--- a/reports/Models Result.xlsx
+++ b/reports/Models Result.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xiaotingzhou/Documents/GitHub/MX-Project/reports/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F65D725-B098-9D4E-BFA1-7092FB006D91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{301634C6-8D30-BD4E-BEA3-00FF4F138D80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="18380" xr2:uid="{4E148ACC-B12B-E343-9F27-4CD05DA8D2A8}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="18360" xr2:uid="{4E148ACC-B12B-E343-9F27-4CD05DA8D2A8}"/>
   </bookViews>
   <sheets>
     <sheet name="Stage_1" sheetId="1" r:id="rId1"/>
@@ -203,7 +203,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -212,31 +212,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -250,6 +235,12 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -588,91 +579,95 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0A15C01-8E95-9942-B54C-39C0C8F89BAC}">
   <dimension ref="B8:G30"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21:G31"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="27" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="5" width="27" style="2"/>
+    <col min="1" max="1" width="4.6640625" style="2" customWidth="1"/>
+    <col min="2" max="5" width="27" style="2"/>
     <col min="6" max="6" width="8.6640625" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="27" style="2"/>
+    <col min="7" max="7" width="3.33203125" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="27" style="2"/>
   </cols>
   <sheetData>
     <row r="8" spans="2:7" ht="19" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="15"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
     </row>
     <row r="9" spans="2:7" ht="19" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
     </row>
     <row r="10" spans="2:7" ht="135" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
       <c r="G10" s="3"/>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
       <c r="G11" s="3"/>
     </row>
     <row r="12" spans="2:7" ht="19" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="E12" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F12" s="6" t="s">
+      <c r="F12" s="5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="13" spans="2:7" ht="19" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="1">
         <v>0.38019999999999998</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="1">
         <v>0.37790000000000001</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="1">
         <v>0.37819999999999998</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F13" s="1">
         <v>0.37959999999999999</v>
       </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C14" s="1">
@@ -689,7 +684,7 @@
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="4" t="s">
         <v>17</v>
       </c>
       <c r="C15" s="1">
@@ -706,107 +701,107 @@
       </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="8">
+      <c r="C16" s="1">
         <v>0.87719999999999998</v>
       </c>
-      <c r="D16" s="8">
+      <c r="D16" s="1">
         <v>0.877</v>
       </c>
-      <c r="E16" s="8">
+      <c r="E16" s="1">
         <v>0.87780000000000002</v>
       </c>
-      <c r="F16" s="8">
+      <c r="F16" s="1">
         <v>0.87729999999999997</v>
       </c>
     </row>
     <row r="17" spans="2:6" ht="19" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="13" t="s">
+      <c r="B17" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C17" s="14">
+      <c r="C17" s="9">
         <v>0.94320000000000004</v>
       </c>
-      <c r="D17" s="14">
+      <c r="D17" s="9">
         <v>0.94320000000000004</v>
       </c>
-      <c r="E17" s="14">
+      <c r="E17" s="9">
         <v>0.94340000000000002</v>
       </c>
-      <c r="F17" s="14">
+      <c r="F17" s="9">
         <v>0.94330000000000003</v>
       </c>
     </row>
     <row r="21" spans="2:6" ht="19" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="22" spans="2:6" ht="19" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="16" t="s">
+      <c r="B22" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C22" s="17"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
     </row>
     <row r="23" spans="2:6" ht="338" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="9" t="s">
+      <c r="B23" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C23" s="10" t="s">
+      <c r="C23" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B24" s="11" t="s">
+      <c r="B24" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C24" s="12" t="s">
+      <c r="C24" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
     </row>
     <row r="25" spans="2:6" ht="19" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="6" t="s">
+      <c r="B25" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D25" s="6" t="s">
+      <c r="D25" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E25" s="6" t="s">
+      <c r="E25" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F25" s="6" t="s">
+      <c r="F25" s="5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="26" spans="2:6" ht="19" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C26" s="4">
+      <c r="C26" s="1">
         <v>0.57840000000000003</v>
       </c>
-      <c r="D26" s="4">
+      <c r="D26" s="1">
         <v>0.57869999999999999</v>
       </c>
-      <c r="E26" s="4">
+      <c r="E26" s="1">
         <v>0.57640000000000002</v>
       </c>
-      <c r="F26" s="4">
+      <c r="F26" s="1">
         <v>0.5766</v>
       </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B27" s="5" t="s">
+      <c r="B27" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C27" s="1">
@@ -823,7 +818,7 @@
       </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B28" s="5" t="s">
+      <c r="B28" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C28" s="1">
@@ -840,36 +835,36 @@
       </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B29" s="7" t="s">
+      <c r="B29" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C29" s="8">
+      <c r="C29" s="1">
         <v>0.7097</v>
       </c>
-      <c r="D29" s="8">
+      <c r="D29" s="1">
         <v>0.7097</v>
       </c>
-      <c r="E29" s="8">
+      <c r="E29" s="1">
         <v>0.70940000000000003</v>
       </c>
-      <c r="F29" s="8">
+      <c r="F29" s="1">
         <v>0.70940000000000003</v>
       </c>
     </row>
     <row r="30" spans="2:6" ht="19" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="13" t="s">
+      <c r="B30" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C30" s="14">
+      <c r="C30" s="9">
         <v>0.7581</v>
       </c>
-      <c r="D30" s="14">
+      <c r="D30" s="9">
         <v>0.74629999999999996</v>
       </c>
-      <c r="E30" s="14">
+      <c r="E30" s="9">
         <v>0.75539999999999996</v>
       </c>
-      <c r="F30" s="14">
+      <c r="F30" s="9">
         <v>0.70960000000000001</v>
       </c>
     </row>
